--- a/data/trans_dic/P04D$notiene-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04335047727751261</v>
+        <v>0.04395014179089947</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.156422515287669</v>
+        <v>0.1574335709620642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1307587964870905</v>
+        <v>0.1310051311937331</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04846388135517538</v>
+        <v>0.04830398788900986</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1353722055967171</v>
+        <v>0.1357003518733672</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1068109137380711</v>
+        <v>0.105493780052783</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04890652751181328</v>
+        <v>0.05003619940203492</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1524045942920861</v>
+        <v>0.1514607486365428</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1271281156187868</v>
+        <v>0.1258755341538795</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07340708694171347</v>
+        <v>0.0745581048594413</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.205164518238803</v>
+        <v>0.2060430470763513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.206816469883038</v>
+        <v>0.2052648278266076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07746941519988959</v>
+        <v>0.07909475035190865</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1776940039048483</v>
+        <v>0.1774818433193076</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1554606584592544</v>
+        <v>0.1521632320635718</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07007577933484069</v>
+        <v>0.07010911953334696</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1821812460335889</v>
+        <v>0.1837472176370425</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1673020833126414</v>
+        <v>0.1691119567772262</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03082287687626033</v>
+        <v>0.0311250709986742</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1643808453233095</v>
+        <v>0.1629689296613087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09683442359976256</v>
+        <v>0.09910707170715412</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03291966363880506</v>
+        <v>0.03301322064255335</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1497226941383539</v>
+        <v>0.1484487367693532</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1001634553386651</v>
+        <v>0.1000156876058726</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03404021437892169</v>
+        <v>0.03434798894981102</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1648135359473848</v>
+        <v>0.1617933275629039</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1040902769644646</v>
+        <v>0.1045539944386141</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05840230695897348</v>
+        <v>0.05884991298417616</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.217258854868228</v>
+        <v>0.215614167695189</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1448051881329945</v>
+        <v>0.1456609902054707</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05743228522517869</v>
+        <v>0.05860416195775194</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1965237063115187</v>
+        <v>0.1974026372551236</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1340922263272881</v>
+        <v>0.1326080162895968</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05328842694779157</v>
+        <v>0.05304477907593924</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1985148984681415</v>
+        <v>0.1979913370043573</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1332144563690341</v>
+        <v>0.1338565870638088</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1060321784014594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.102603613040416</v>
+        <v>0.1026036130404159</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.02737183017535421</v>
@@ -882,7 +882,7 @@
         <v>0.1127481785864679</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1077450316327233</v>
+        <v>0.1077450316327232</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01429457844868726</v>
+        <v>0.01510973829973943</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08565763974279302</v>
+        <v>0.08458809452457844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08247622447412382</v>
+        <v>0.0823013226321915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01797901791639864</v>
+        <v>0.01773036880293178</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09801140898749029</v>
+        <v>0.09963805790830946</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09633558230174941</v>
+        <v>0.09749416586438746</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0181958961416244</v>
+        <v>0.01888182030441728</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.098315010073297</v>
+        <v>0.09659887174883867</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09549339327577278</v>
+        <v>0.09436223996557901</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0358373984202742</v>
+        <v>0.0361474827092897</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.131346902007379</v>
+        <v>0.1280220123568309</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1258672636166642</v>
+        <v>0.1256131277632526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04106190574807096</v>
+        <v>0.03930213794088551</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1451161960856802</v>
+        <v>0.1445579939380452</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.131222358552254</v>
+        <v>0.1307034265867334</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03311802615708574</v>
+        <v>0.03338160475861825</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1304471104236447</v>
+        <v>0.1289078257391008</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1226367776649851</v>
+        <v>0.1230958574844967</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0233846676665863</v>
+        <v>0.02225792200228124</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1024241562715866</v>
+        <v>0.1040301787408657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1007009012080737</v>
+        <v>0.1003323487243533</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02173658409737117</v>
+        <v>0.02140502038410886</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08192584392972919</v>
+        <v>0.08083080052123803</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1174618766132858</v>
+        <v>0.1172252928033405</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02573825145183976</v>
+        <v>0.0256511184928068</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1010542105595243</v>
+        <v>0.1001790493278185</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1134725680713002</v>
+        <v>0.1138028953884191</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06260673848937691</v>
+        <v>0.06209509322655322</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1684126911483122</v>
+        <v>0.1695870433004315</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1506118316326467</v>
+        <v>0.1505396542297928</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06160948018224629</v>
+        <v>0.06009206003444185</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1358838719625258</v>
+        <v>0.1391703345859177</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1646224736171753</v>
+        <v>0.1649354099872659</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05316024045587556</v>
+        <v>0.05332069379815907</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1415296833248016</v>
+        <v>0.1421680030146348</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1497144724389624</v>
+        <v>0.1478295831858495</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03397921108280808</v>
+        <v>0.03512004652747849</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1446478076974468</v>
+        <v>0.1444171444689532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.112385065192179</v>
+        <v>0.1106831401609245</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0376215147399197</v>
+        <v>0.03858182080524124</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1326926818138562</v>
+        <v>0.1347053097625187</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1123948201445624</v>
+        <v>0.113736417971294</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03810496849839108</v>
+        <v>0.0385967720585528</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1437672455063174</v>
+        <v>0.1430234264647324</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1142056431988484</v>
+        <v>0.1151868681984901</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0483961000386869</v>
+        <v>0.04920129690817152</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1706469424565966</v>
+        <v>0.1714775809558127</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1367187957505993</v>
+        <v>0.1354347461946351</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05269493719918937</v>
+        <v>0.05277952138807127</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1577253191751802</v>
+        <v>0.1580675044897362</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1333063734899279</v>
+        <v>0.1344384842253652</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04886312918925593</v>
+        <v>0.04895081794664814</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1621419054527355</v>
+        <v>0.1600766023981002</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1306812397524632</v>
+        <v>0.1312021567656483</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>45071</v>
+        <v>45694</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>176444</v>
+        <v>177585</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>64949</v>
+        <v>65072</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>54072</v>
+        <v>53894</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>170510</v>
+        <v>170923</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>66475</v>
+        <v>65655</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>105413</v>
+        <v>107848</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>363875</v>
+        <v>361621</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>142266</v>
+        <v>140864</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>76320</v>
+        <v>77517</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>231425</v>
+        <v>232416</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>102728</v>
+        <v>101957</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>86434</v>
+        <v>88248</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>223816</v>
+        <v>223549</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>96753</v>
+        <v>94701</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>151042</v>
+        <v>151114</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>434968</v>
+        <v>438707</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>187223</v>
+        <v>189249</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>30058</v>
+        <v>30353</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>149393</v>
+        <v>148110</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>92974</v>
+        <v>95156</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36023</v>
+        <v>36125</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>150692</v>
+        <v>149410</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>111702</v>
+        <v>111537</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>70445</v>
+        <v>71082</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>315667</v>
+        <v>309883</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>216022</v>
+        <v>216984</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56953</v>
+        <v>57390</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>197450</v>
+        <v>195956</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>139033</v>
+        <v>139855</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62846</v>
+        <v>64128</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>197796</v>
+        <v>198681</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>149539</v>
+        <v>147884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>110278</v>
+        <v>109774</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>380216</v>
+        <v>379213</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>276464</v>
+        <v>277797</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12652</v>
+        <v>13374</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>70561</v>
+        <v>69680</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>86211</v>
+        <v>86028</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15746</v>
+        <v>15528</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>75573</v>
+        <v>76827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>100589</v>
+        <v>101799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>32041</v>
+        <v>33249</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>156795</v>
+        <v>154058</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>199527</v>
+        <v>197163</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31720</v>
+        <v>31995</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>108198</v>
+        <v>105459</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>131567</v>
+        <v>131301</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>35962</v>
+        <v>34421</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>111893</v>
+        <v>111463</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>137016</v>
+        <v>136474</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>58318</v>
+        <v>58782</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>208039</v>
+        <v>205585</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>256241</v>
+        <v>257200</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11740</v>
+        <v>11175</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51898</v>
+        <v>52712</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>97860</v>
+        <v>97502</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9841</v>
+        <v>9691</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>40119</v>
+        <v>39583</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>106638</v>
+        <v>106423</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>24575</v>
+        <v>24492</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>100690</v>
+        <v>99818</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>213287</v>
+        <v>213908</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31432</v>
+        <v>31175</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>85335</v>
+        <v>85930</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>146363</v>
+        <v>146293</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27893</v>
+        <v>27206</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>66542</v>
+        <v>68151</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>149452</v>
+        <v>149736</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>50757</v>
+        <v>50910</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>141020</v>
+        <v>141656</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>281409</v>
+        <v>277866</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>115599</v>
+        <v>119480</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>487070</v>
+        <v>486293</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>390417</v>
+        <v>384504</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>133124</v>
+        <v>136522</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>467979</v>
+        <v>475078</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>414687</v>
+        <v>419637</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>264470</v>
+        <v>267883</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>991142</v>
+        <v>986014</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>818109</v>
+        <v>825138</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>164646</v>
+        <v>167385</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>574616</v>
+        <v>577413</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>474950</v>
+        <v>470489</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>186462</v>
+        <v>186761</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>556264</v>
+        <v>557471</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>491842</v>
+        <v>496019</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>339138</v>
+        <v>339746</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1117818</v>
+        <v>1103580</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>936132</v>
+        <v>939864</v>
       </c>
     </row>
     <row r="24">
